--- a/data/trans_camb/P23_8_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_8_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>-2,61</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,7</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 0,0</t>
+          <t>-13,23; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 19,46</t>
+          <t>-6,57; 18,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 6,32</t>
+          <t>-10,4; 5,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 8,25</t>
+          <t>-10,67; 7,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 1,76</t>
+          <t>-10,93; 7,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 9,84</t>
+          <t>-12,67; 4,93</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-8,52; 3,52</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,04; 9,47</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-8,72; 3,68</t>
         </is>
       </c>
     </row>
@@ -682,27 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>125,43%</t>
+          <t>53,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-17,18%</t>
+          <t>-17,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>-8,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-47,23%</t>
+          <t>-12,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>51,77%</t>
+          <t>-50,82%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-41,71%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10,63%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-39,37%</t>
         </is>
       </c>
     </row>
@@ -725,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 526,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 688,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +816,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,77; 579,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>13,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>3,15</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7,14</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,17</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 26,68</t>
+          <t>0,0; 43,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 2,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 2,04</t>
+          <t>0,0; 12,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 1,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 11,35</t>
+          <t>1,41; 12,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 1,24</t>
+          <t>0,0; 11,78</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 30,82</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 7,01</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 7,78</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>440,38%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-17,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-59,47%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-56,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-52,27%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -886,17 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 226,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-86,8; 781,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-95,42; 125,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-4,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,53</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 15,73</t>
+          <t>-12,51; 1,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 7,73</t>
+          <t>-2,4; 19,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 3,53</t>
+          <t>-6,39; 12,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 4,47</t>
+          <t>-3,23; 7,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 7,24</t>
+          <t>-4,13; 6,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 3,74</t>
+          <t>-5,14; 4,49</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 3,4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,17; 9,29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 6,05</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-16,11%</t>
+          <t>-74,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,53%</t>
+          <t>110,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-26,87%</t>
+          <t>39,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-14,89%</t>
+          <t>64,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-20,98%</t>
+          <t>31,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,13%</t>
+          <t>-20,47%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-14,77%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>81,17%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>20,61%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 471,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,27; 207,81</t>
+          <t>-37,43; 936,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-81,33; 149,17</t>
+          <t>-70,92; 728,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-81,87; 195,49</t>
+          <t>-72,86; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-76,11; 202,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-62,85; 93,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-78,32; 164,55</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-37,46; 415,2</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-66,64; 326,47</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>4,84</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-1,59</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5,22</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 0,67</t>
+          <t>-7,77; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 3,58</t>
+          <t>-4,72; 2,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 8,12</t>
+          <t>0,22; 13,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 5,71</t>
+          <t>-8,34; 7,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 3,9</t>
+          <t>-11,2; 5,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 3,4</t>
+          <t>-4,15; 14,14</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-6,31; 2,92</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-6,79; 2,11</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 11,27</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-69,24%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-14,08%</t>
+          <t>-45,35%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>34,03%</t>
+          <t>259,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>-8,62%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>-26,81%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>49,91%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-25,24%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-31,56%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>82,95%</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1449,37 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-44,42; 220,58</t>
+          <t>-45,89; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-58,12; 150,91</t>
+          <t>-63,48; 131,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,52; 133,13</t>
+          <t>-75,72; 105,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-55,93; 115,8</t>
+          <t>-32,1; 239,98</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-70,28; 96,79</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-77,5; 63,37</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-9,29; 283,75</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>13,71</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4,84</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 15,89</t>
+          <t>-8,35; 26,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 2,58</t>
+          <t>-12,27; 4,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 8,28</t>
+          <t>-12,19; 6,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 12,77</t>
+          <t>-5,98; 8,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 9,09</t>
+          <t>-3,8; 15,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 5,55</t>
+          <t>2,48; 27,49</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 16,29</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-6,03; 6,52</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 12,38</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-41,24%</t>
+          <t>-39,91%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,47%</t>
+          <t>-29,25%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>47,34%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>123,2%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>357,68%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>29,46%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0,07%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>73,13%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-76,13; 633,93</t>
+          <t>-84,75; 975,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-83,2; 71,63</t>
+          <t>-88,9; 149,38</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-64,75; 216,07</t>
+          <t>-89,08; 181,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-40,78; 332,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-54,82; 172,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-48,79; 107,52</t>
+          <t>-25,13; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-72,56; 471,0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-62,5; 216,63</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-40,51; 319,0</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,42</t>
+          <t>16,74</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-4,12</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>3,35</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-3,58</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-1,78</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>9,12</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 5,37</t>
+          <t>-13,75; 4,62</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 7,9</t>
+          <t>-13,7; 4,78</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 0,55</t>
+          <t>1,29; 33,38</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 2,86</t>
+          <t>-13,65; 4,94</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 1,13</t>
+          <t>-11,9; 8,75</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 3,48</t>
+          <t>-8,0; 18,81</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-10,26; 2,71</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-9,24; 4,27</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 20,31</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-34,21%</t>
+          <t>-55,35%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-3,05%</t>
+          <t>-52,62%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-63,03%</t>
+          <t>317,93%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-42,63%</t>
+          <t>-58,8%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-51,66%</t>
+          <t>-14,59%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-28,15%</t>
+          <t>47,87%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-57,69%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-28,67%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>147,06%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-89,5; 183,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-77,81; 212,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 40,85</t>
+          <t>-27,08; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-89,64; 73,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-87,33; 24,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-73,73; 65,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-88,37; 319,91</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-21,95; 1084,81</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>3,43</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,67</t>
+          <t>-3,01; 9,65</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,94</t>
+          <t>-2,88; 4,03</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 1,17</t>
+          <t>-0,03; 7,96</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 2,18</t>
+          <t>-3,07; 2,87</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 1,75</t>
+          <t>-2,39; 3,99</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,65</t>
+          <t>-0,43; 6,89</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 4,34</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 3,01</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 6,31</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-8,54%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-3,76%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-21,78%</t>
+          <t>85,79%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-9,35%</t>
+          <t>-2,12%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-16,71%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-7,55%</t>
+          <t>68,09%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>7,31%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>11,7%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>75,54%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-59,85; 121,25</t>
+          <t>-70,11; 289,44</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-47,73; 87,25</t>
+          <t>-53,79; 156,43</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-51,2; 25,69</t>
+          <t>-3,06; 284,02</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-42,96; 46,13</t>
+          <t>-49,35; 86,59</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-45,65; 36,84</t>
+          <t>-37,12; 121,23</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-34,09; 34,94</t>
+          <t>-10,08; 192,1</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-40,6; 118,79</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-32,01; 84,44</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>11,61; 178,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
